--- a/ProjectManagement/TPS_DB_Table_column P1_v4.xlsx
+++ b/ProjectManagement/TPS_DB_Table_column P1_v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DS\f\02_Preaching\04 Preaching Software\Project Management\Phase 1\PreachingAssistant\ProjectManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hariksetra\Desktop\FromHariksetraPrabhu\fwdpreachingsoftwarerequirementsdocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Table_Column" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
   <si>
     <t>DILegalName</t>
   </si>
@@ -638,12 +638,6 @@
   </si>
   <si>
     <t>L0 Program</t>
-  </si>
-  <si>
-    <t>Sikasha Program</t>
-  </si>
-  <si>
-    <t>Outing</t>
   </si>
   <si>
     <t>Retreat/Camp</t>
@@ -885,6 +879,42 @@
     <t>CDPAssociatedDevoteeID       FK:DIDevoteeID
 Incase of house visit, the devotee whose house 
 is been visited can be recorded here</t>
+  </si>
+  <si>
+    <t>PITopicType     (precoded)</t>
+  </si>
+  <si>
+    <t>BVMaster</t>
+  </si>
+  <si>
+    <t>BVMID</t>
+  </si>
+  <si>
+    <t>BVMName</t>
+  </si>
+  <si>
+    <t>BVMIncharge</t>
+  </si>
+  <si>
+    <t>BVMAssistantIncharge</t>
+  </si>
+  <si>
+    <t>BVMReportingSector</t>
+  </si>
+  <si>
+    <t>PMReportingBV                   FK:BVMID</t>
+  </si>
+  <si>
+    <t>PMCascadingScope</t>
+  </si>
+  <si>
+    <t>0- None</t>
+  </si>
+  <si>
+    <t>1- Leaders</t>
+  </si>
+  <si>
+    <t>2- All Members</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1235,6 +1265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,9 +1288,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,8 +1598,8 @@
   </sheetPr>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="93" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,16 +1619,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="14"/>
       <c r="J1" s="46" t="s">
         <v>116</v>
@@ -1612,18 +1648,18 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="D3" s="51" t="s">
+      <c r="A3" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="D3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="G3" s="51" t="s">
+      <c r="E3" s="55"/>
+      <c r="G3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="55"/>
       <c r="J3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1913,10 +1949,10 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="55"/>
       <c r="J18" t="s">
         <v>126</v>
       </c>
@@ -2241,16 +2277,16 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="14"/>
       <c r="J39" t="s">
         <v>138</v>
@@ -2262,18 +2298,18 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="D41" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" s="52"/>
-      <c r="G41" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="H41" s="52"/>
+      <c r="A41" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="D41" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="G41" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="55"/>
       <c r="J41" t="s">
         <v>140</v>
       </c>
@@ -2284,7 +2320,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>99</v>
@@ -2296,7 +2332,7 @@
         <v>99</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>99</v>
@@ -2307,7 +2343,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>94</v>
@@ -2330,13 +2366,13 @@
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>91</v>
@@ -2353,13 +2389,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>87</v>
@@ -2376,7 +2412,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>94</v>
@@ -2402,16 +2438,13 @@
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
-      <c r="J48" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>35</v>
@@ -2425,13 +2458,10 @@
       <c r="H49" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="J49" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>94</v>
@@ -2454,7 +2484,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>91</v>
@@ -2477,7 +2507,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>94</v>
@@ -2500,7 +2530,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>94</v>
@@ -2518,12 +2548,12 @@
         <v>172</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>94</v>
@@ -2534,160 +2564,160 @@
       <c r="E54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G54" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>87</v>
+      <c r="G54" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="D55" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>148</v>
+      <c r="D55" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="22" t="s">
-        <v>69</v>
+      <c r="G57" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="J58" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="42" t="s">
-        <v>99</v>
-      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
       <c r="J59" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" s="22" t="s">
+      <c r="D60" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="23" t="s">
         <v>94</v>
       </c>
       <c r="J61" s="8" t="s">
@@ -2698,9 +2728,15 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="29" t="s">
         <v>94</v>
       </c>
       <c r="J62" t="s">
@@ -2709,287 +2745,349 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="H63" s="52"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>29</v>
+      <c r="D64" s="33" t="s">
+        <v>237</v>
       </c>
       <c r="E64" s="45" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="51"/>
+      <c r="J64" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="J65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="G66" s="4" t="s">
+      <c r="J66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="G67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="41" t="s">
+      <c r="H67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="G68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D69" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" s="45" t="s">
+      <c r="E71" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="H70" s="52"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D72" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E72" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G72" s="15" t="s">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D76" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D76" s="41" t="s">
+      <c r="H76" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="G77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E78" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H76" s="4" t="s">
+      <c r="G78" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D79" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D77" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="4" t="s">
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
+      <c r="A82" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="B84" s="52"/>
-      <c r="D84" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="E84" s="52"/>
+      <c r="A84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="D84" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" s="55"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>94</v>
@@ -2997,13 +3095,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>91</v>
@@ -3011,7 +3109,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>185</v>
@@ -3019,27 +3117,27 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>94</v>
@@ -3047,13 +3145,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>94</v>
@@ -3061,13 +3159,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>91</v>
@@ -3075,13 +3173,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>94</v>
@@ -3089,7 +3187,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>160</v>
@@ -3097,21 +3195,21 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D97" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>94</v>
@@ -3119,7 +3217,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D98" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>185</v>
@@ -3127,15 +3225,15 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D99" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D100" s="55" t="s">
-        <v>286</v>
+      <c r="D100" s="52" t="s">
+        <v>284</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>94</v>
@@ -3143,7 +3241,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>94</v>
@@ -3151,23 +3249,23 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D102" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -3287,7 +3385,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A104:H104"/>
     <mergeCell ref="A1:H1"/>
@@ -3295,8 +3393,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G70:H70"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A3:B3"/>
